--- a/output/fit_clients/fit_round_181.xlsx
+++ b/output/fit_clients/fit_round_181.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2266305457.528813</v>
+        <v>2180076136.418225</v>
       </c>
       <c r="F2" t="n">
-        <v>0.103374423286981</v>
+        <v>0.09788762856834084</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0344979024315832</v>
+        <v>0.04158015733421752</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1133152760.17237</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1612955223.253824</v>
+        <v>2593999645.278712</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1369779593419012</v>
+        <v>0.1481000016618585</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04535013782704721</v>
+        <v>0.03598622784710927</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>806477591.7167294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4378013164.011125</v>
+        <v>4877601002.158623</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1635484436386423</v>
+        <v>0.1214477771012606</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02928547813422391</v>
+        <v>0.02976693427927221</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>65</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2189006622.945907</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3826824194.165192</v>
+        <v>3615511451.261095</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1042858124229182</v>
+        <v>0.0759768521557985</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04052004134099721</v>
+        <v>0.04017955880914666</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>69</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1913412112.181804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2189287464.055584</v>
+        <v>2667031015.897603</v>
       </c>
       <c r="F6" t="n">
-        <v>0.140874832594563</v>
+        <v>0.1123921866143584</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04931896161422463</v>
+        <v>0.04561807144738739</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1094643741.111887</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2242244124.952331</v>
+        <v>2041755151.917816</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09518510898170848</v>
+        <v>0.1011134918982869</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03809357794565246</v>
+        <v>0.03336963304503743</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>57</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1121122100.336359</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3177623350.176701</v>
+        <v>3823430482.816325</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2044350156335507</v>
+        <v>0.217756623639119</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02926422415795486</v>
+        <v>0.02237329499509073</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>57</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1588811750.733789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1929393696.685491</v>
+        <v>1589642500.529282</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625911152973039</v>
+        <v>0.1783308236781211</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02690501120556747</v>
+        <v>0.03242414311594288</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>964696884.7311753</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3771733355.543005</v>
+        <v>5285267725.615553</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1707344407338569</v>
+        <v>0.1683888364266442</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04977310202133405</v>
+        <v>0.05260527418772953</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>76</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1885866681.984029</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2823217432.589312</v>
+        <v>3958129657.316302</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1625999843101642</v>
+        <v>0.1635989795212775</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04703172002851443</v>
+        <v>0.04998242061426377</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1411608646.921611</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2530036756.159217</v>
+        <v>2111401751.840088</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1929169782387959</v>
+        <v>0.1785788261978801</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0461959478494688</v>
+        <v>0.04748885437894452</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>64</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1265018353.038239</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3550804859.693608</v>
+        <v>4817214416.57795</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09627522514618372</v>
+        <v>0.08056870233620597</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02079655747323638</v>
+        <v>0.02329986216956196</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>60</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1775402507.562486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2651759568.862877</v>
+        <v>3181209151.505953</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1803781943703982</v>
+        <v>0.1551954237031986</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04184401030001828</v>
+        <v>0.02684318117203982</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>58</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1325879844.065543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1412798528.179847</v>
+        <v>1404428272.303482</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0885318776045213</v>
+        <v>0.1055875081593216</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03614639793870034</v>
+        <v>0.03904302718347784</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>706399329.7973932</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2550542009.285255</v>
+        <v>2039348994.273</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1010299959118546</v>
+        <v>0.09672083360779289</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04083982890854858</v>
+        <v>0.03954655285603841</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>28</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1275271030.917647</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4551608955.936015</v>
+        <v>3872554006.118103</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1256205995851933</v>
+        <v>0.1666360494239914</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04129712524283941</v>
+        <v>0.03588323224485413</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>53</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2275804485.230423</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3697069269.643656</v>
+        <v>2739500609.794141</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1309569666525472</v>
+        <v>0.1731891782484846</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02706399202297724</v>
+        <v>0.0283867549045139</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>59</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1848534614.565063</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>947020466.2597772</v>
+        <v>1186750085.67612</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1602941550704984</v>
+        <v>0.1596785317453399</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0270282383352769</v>
+        <v>0.026160655496179</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>473510249.4397792</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2518781382.755223</v>
+        <v>1886738696.776823</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1580409155726377</v>
+        <v>0.1604848468369121</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02439717511701488</v>
+        <v>0.02140949141911789</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1259390662.425683</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2105205180.394701</v>
+        <v>2205898228.196527</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07837073271976561</v>
+        <v>0.0707255627685625</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02897516918234979</v>
+        <v>0.03782244046427646</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1052602616.073226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3052022330.409647</v>
+        <v>3031407876.730013</v>
       </c>
       <c r="F22" t="n">
-        <v>0.11542780274164</v>
+        <v>0.1138879024894541</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05299279419588841</v>
+        <v>0.043059498664753</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>50</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1526011223.591313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1482881037.12463</v>
+        <v>1065855306.054339</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1701291619878619</v>
+        <v>0.1161934409240819</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04327169107870658</v>
+        <v>0.04594462559047587</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>741440507.3543494</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3268164582.295669</v>
+        <v>3885201414.553639</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1461264995918576</v>
+        <v>0.1320645494940735</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03564537573399208</v>
+        <v>0.02336714916070807</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>53</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1634082308.324352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1091422765.58095</v>
+        <v>980825671.5818396</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1181464448207056</v>
+        <v>0.1185236551508238</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02881498609231339</v>
+        <v>0.02126612336644013</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>545711425.7127793</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>943054848.993935</v>
+        <v>936093568.8096581</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1238706280260914</v>
+        <v>0.07882227972990423</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02369923238496015</v>
+        <v>0.03199317740197118</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>471527382.6160254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3237934129.130026</v>
+        <v>4438874783.248386</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1316449816639321</v>
+        <v>0.1246184672290144</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02425946288215253</v>
+        <v>0.02112063888612912</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1618967112.528529</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3674848002.976755</v>
+        <v>3287288714.864835</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1168672420487204</v>
+        <v>0.133712489371498</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04072929485975731</v>
+        <v>0.04848950690103186</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>58</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1837424071.267344</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3770747752.83442</v>
+        <v>5219308377.638421</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1321843100813881</v>
+        <v>0.1253632647200095</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04380803765144931</v>
+        <v>0.04325701712584877</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>82</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1885373909.108155</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2261180895.486681</v>
+        <v>1826076809.441345</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1295439086125136</v>
+        <v>0.1160593678781527</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02937050993285426</v>
+        <v>0.0349985263238775</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1130590514.90618</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1057668472.767012</v>
+        <v>1346585130.297205</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09282734642459721</v>
+        <v>0.09913798022710357</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04514977913748375</v>
+        <v>0.03931125941968684</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>528834221.3276909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1493963415.564395</v>
+        <v>1694244877.956073</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09374861607774267</v>
+        <v>0.0817913248465699</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0257054722189269</v>
+        <v>0.03101616920982697</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>746981774.8535668</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2751951459.783847</v>
+        <v>2949593096.05716</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1986147684970477</v>
+        <v>0.1500407369962867</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05119337078051191</v>
+        <v>0.04813793222391571</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>55</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1375975746.604283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1372842131.027357</v>
+        <v>1399274828.739379</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08061631029253834</v>
+        <v>0.1016492956302383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02076209917014721</v>
+        <v>0.01893651195191929</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>686421042.1783922</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1177388108.934003</v>
+        <v>1031859068.858252</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1006089526194236</v>
+        <v>0.1102359833912765</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03932353549254637</v>
+        <v>0.03960411794510542</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>588694034.1165924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1968317529.546464</v>
+        <v>3095542733.804765</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1164924201180626</v>
+        <v>0.1649448827886182</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02228344431319912</v>
+        <v>0.02205243570737204</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>45</v>
-      </c>
-      <c r="J36" t="n">
-        <v>984158829.3313373</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1800868935.145343</v>
+        <v>2839829202.731476</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06909288290510016</v>
+        <v>0.09543344942826315</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02785684696789305</v>
+        <v>0.02949577800120338</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>50</v>
-      </c>
-      <c r="J37" t="n">
-        <v>900434467.4401753</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1953916482.571755</v>
+        <v>2171915123.546784</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1168847966485982</v>
+        <v>0.09907547205817803</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03209385813226191</v>
+        <v>0.03764069144947612</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>976958226.3974727</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1525035347.828149</v>
+        <v>1628647056.56722</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1339665432028334</v>
+        <v>0.1916905990436642</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0215741688293981</v>
+        <v>0.0297842039940904</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>762517740.5453722</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1671472451.100052</v>
+        <v>1243806655.105863</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1362772726339066</v>
+        <v>0.09790969024730289</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0593976393680726</v>
+        <v>0.03833607181399958</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>835736148.8054229</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1987591913.275289</v>
+        <v>2340286957.532929</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1333273352103797</v>
+        <v>0.1380925685711195</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0400490463722399</v>
+        <v>0.03550943574526227</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>46</v>
-      </c>
-      <c r="J41" t="n">
-        <v>993796032.0854068</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2814613334.97769</v>
+        <v>2631220003.13482</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09294394855931613</v>
+        <v>0.09374016826843094</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03621491777079072</v>
+        <v>0.04455746318851331</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1407306615.130792</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2185611180.133551</v>
+        <v>2020487862.820369</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1395364795503849</v>
+        <v>0.1704254838843319</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02171066663959759</v>
+        <v>0.02418102037604312</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>62</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1092805670.325063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2331821916.173526</v>
+        <v>1904350886.336747</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09446329090667535</v>
+        <v>0.06517484707842063</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03074972636197268</v>
+        <v>0.03287809308976835</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1165911130.609684</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2280269072.634625</v>
+        <v>2122720985.661075</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1499631072643968</v>
+        <v>0.1770492809852732</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04533905190869385</v>
+        <v>0.0421736794311868</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1140134555.403775</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3681104987.014393</v>
+        <v>3653858943.486217</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1567257764353688</v>
+        <v>0.1329062512249098</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04144662039574289</v>
+        <v>0.04360398808201531</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>64</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1840552444.754045</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4127721479.650558</v>
+        <v>4883144321.799049</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1566494918014174</v>
+        <v>0.1350860562459929</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05906533485089985</v>
+        <v>0.03818229316768136</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>48</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2063860746.163628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4622999120.975362</v>
+        <v>2862840956.960216</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06758790309287828</v>
+        <v>0.1079423314755321</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02611856338956585</v>
+        <v>0.02637513797068643</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>63</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2311499558.625622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1437425940.154047</v>
+        <v>1931786747.324366</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1868194926813156</v>
+        <v>0.1835224179610689</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03053171042205237</v>
+        <v>0.02745445617765473</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>718713011.7947354</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3457949345.902705</v>
+        <v>3896173418.183008</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1557752953469168</v>
+        <v>0.143900866898212</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03542121878028421</v>
+        <v>0.05117045465716796</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>61</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1728974700.195392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1525354189.121433</v>
+        <v>1344521660.814293</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1319150713471436</v>
+        <v>0.1201648994275012</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03908570857124072</v>
+        <v>0.04967906905187378</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>762677093.3449686</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5041585617.014224</v>
+        <v>3862451721.220456</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09439837434707807</v>
+        <v>0.120535857605108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04725514087227475</v>
+        <v>0.04411873792915311</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>74</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2520792803.654622</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2384292886.277746</v>
+        <v>3708500679.330891</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1549033853416745</v>
+        <v>0.1380429090660059</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02616970901920769</v>
+        <v>0.03452119577582845</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>52</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1192146518.080957</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3809198066.246047</v>
+        <v>3590780305.929404</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1600610650176267</v>
+        <v>0.1376713262340932</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04402210036660535</v>
+        <v>0.0351252388388299</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1904599082.195019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4012835535.296753</v>
+        <v>3891603433.336795</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1861875595569686</v>
+        <v>0.2228182098964384</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02156706699693211</v>
+        <v>0.02317388831083088</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2006417743.09793</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1389536372.843946</v>
+        <v>1851857578.618304</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1279578955097244</v>
+        <v>0.13992478646943</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04858016422822758</v>
+        <v>0.05698753372128306</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>694768245.018356</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3755867615.365663</v>
+        <v>2849977912.901026</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1425719140860557</v>
+        <v>0.1255627410982931</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02658917000263617</v>
+        <v>0.02466057480424048</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>57</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1877933875.526556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1336053707.120425</v>
+        <v>1183465982.466935</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1550171304032824</v>
+        <v>0.1789998892614579</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03847829498964278</v>
+        <v>0.03029023695178591</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>668026899.6378827</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4634260535.715681</v>
+        <v>5037550801.040719</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08059111687098935</v>
+        <v>0.1198334699397351</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03865447885444533</v>
+        <v>0.041355819809592</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2317130213.201284</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2981923982.422345</v>
+        <v>2868745334.878072</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1521215143280197</v>
+        <v>0.1528938385731904</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03212396406128854</v>
+        <v>0.03228562300543016</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1490962059.641215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3212654605.626096</v>
+        <v>3152655421.193545</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1548320375102163</v>
+        <v>0.1301128774859527</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02536455061712019</v>
+        <v>0.02020405850693295</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>64</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1606327263.203734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1512440103.742955</v>
+        <v>1932161923.456559</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1171196746272561</v>
+        <v>0.1830856205118957</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03879566949327566</v>
+        <v>0.03942846543163826</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>756220036.7325654</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3593757995.240977</v>
+        <v>5007450501.715818</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0661002559191268</v>
+        <v>0.107907735190058</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0449816725292627</v>
+        <v>0.03311934059462122</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>52</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1796879078.123955</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3785801547.692545</v>
+        <v>4943287348.442644</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1550301776840319</v>
+        <v>0.1250110261971752</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02258565376493062</v>
+        <v>0.03484319281477385</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>56</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1892900794.620617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4969873922.701324</v>
+        <v>3750971266.204029</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1065059261324729</v>
+        <v>0.1600858170843426</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0211321022344483</v>
+        <v>0.02255039027356955</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>65</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2484936922.0418</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5606412419.353927</v>
+        <v>4648050610.284659</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1549924621154829</v>
+        <v>0.1122673515126053</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03228080650880273</v>
+        <v>0.03136501785741604</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>52</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2803206269.279352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2733034698.999392</v>
+        <v>2708728690.469048</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09379538659810367</v>
+        <v>0.1001675944035912</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03257593895749318</v>
+        <v>0.04137546236932099</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>59</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1366517390.362626</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5684600530.178214</v>
+        <v>5005099745.096721</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1209173709570809</v>
+        <v>0.098584667173177</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0324584563621864</v>
+        <v>0.05061316765304153</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2842300362.947252</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2304958278.591815</v>
+        <v>1569585233.206673</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1751245165845526</v>
+        <v>0.183435167363996</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05283987655538548</v>
+        <v>0.054070007647784</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1152479183.629106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2748245031.676552</v>
+        <v>2966107755.240615</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07706004159093145</v>
+        <v>0.08334821239486279</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0305559727285741</v>
+        <v>0.03871065918748166</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>52</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1374122476.398842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3612727379.326001</v>
+        <v>3885979125.101541</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1460406523118118</v>
+        <v>0.1838987577567223</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02860010521933653</v>
+        <v>0.02365889579309538</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>66</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1806363691.801749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2017738020.660225</v>
+        <v>1553237776.891348</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07467015724913237</v>
+        <v>0.09029754884663885</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04700332670484103</v>
+        <v>0.04999679056271169</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1008868953.808179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3048812853.079156</v>
+        <v>2903226085.849018</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08115940171371856</v>
+        <v>0.1111148707889796</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04477363477065189</v>
+        <v>0.04624668999216755</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>70</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1524406418.023769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3603684278.392698</v>
+        <v>3774508415.166844</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1166106145105863</v>
+        <v>0.1226048176192287</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02758294197578579</v>
+        <v>0.0286918720155845</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>61</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1801842152.347743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1924590065.368546</v>
+        <v>1544996331.003666</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1051390886980362</v>
+        <v>0.163934080840852</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03442768995159144</v>
+        <v>0.02534423681681987</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>962295003.9119511</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4666780701.171284</v>
+        <v>4649093246.894073</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09694060042495986</v>
+        <v>0.09496838708117127</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02458876992592473</v>
+        <v>0.02771894168048439</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2333390363.2019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2118469272.622028</v>
+        <v>2039956603.519529</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1830910889604059</v>
+        <v>0.1799191282969167</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01937288479532985</v>
+        <v>0.02830466164037453</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1059234715.293937</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3062830164.877208</v>
+        <v>4642299732.766314</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1351240698384664</v>
+        <v>0.1162415820431955</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03804468934241725</v>
+        <v>0.03684582579982519</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>63</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1531415115.203791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1374175458.648367</v>
+        <v>1169381548.039947</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1534873381907403</v>
+        <v>0.1106939117243108</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03674995823192637</v>
+        <v>0.0323887019715693</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>687087741.5112911</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5290791483.432071</v>
+        <v>3397692949.119701</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08670895580958948</v>
+        <v>0.09211721909427009</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03025680156033052</v>
+        <v>0.02499390694996059</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>38</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2645395805.366733</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4244257292.64339</v>
+        <v>4028227721.944048</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1146125884464487</v>
+        <v>0.098389955704086</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02492361398024816</v>
+        <v>0.02453375583722121</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>41</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2122128618.572646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5099295860.883707</v>
+        <v>5269426287.177723</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1821478996445822</v>
+        <v>0.1409112547814262</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02833359875597883</v>
+        <v>0.02468009589720607</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2549647908.833411</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1810323240.601736</v>
+        <v>2316288805.613982</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1460828867926128</v>
+        <v>0.1476202166084597</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03449573206845289</v>
+        <v>0.0304903135839637</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>905161582.0121933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2258007160.996691</v>
+        <v>2520138336.866366</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1089304535702246</v>
+        <v>0.08551615354560381</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04876689652517387</v>
+        <v>0.04160525744674912</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1129003547.698234</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3223161051.852446</v>
+        <v>2912439221.526705</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1833316619981525</v>
+        <v>0.1305864661864053</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04045838744110946</v>
+        <v>0.04764988255116123</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>68</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1611580610.689179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1933131903.488381</v>
+        <v>2335210526.494514</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1482110898802619</v>
+        <v>0.1089523324693889</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0242581420949732</v>
+        <v>0.0180739372469052</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
-      <c r="J86" t="n">
-        <v>966565970.0387222</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1039973401.710949</v>
+        <v>1428697287.031857</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1546958407430835</v>
+        <v>0.1588340800582321</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03323541174028338</v>
+        <v>0.04113927746264633</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>519986715.3939471</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3169693320.693696</v>
+        <v>2350998267.429526</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1440629209189576</v>
+        <v>0.1227250025035728</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02529032079097373</v>
+        <v>0.02813206809557705</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>72</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1584846707.535694</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2468153458.50655</v>
+        <v>2444382524.967299</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1441422364827345</v>
+        <v>0.1595939054652209</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0405246464389652</v>
+        <v>0.04155761740916533</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>61</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1234076806.336066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1969115509.922337</v>
+        <v>2074487319.217097</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1264580718659274</v>
+        <v>0.1294507458786957</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05185278319037433</v>
+        <v>0.04136879995202582</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>984557819.5136548</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1646572385.049473</v>
+        <v>1401863041.570546</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1561548359003627</v>
+        <v>0.1841554322862961</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04987907514782744</v>
+        <v>0.05096035339862859</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>823286211.8646947</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2729338772.898498</v>
+        <v>2051645396.9311</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09807796490920177</v>
+        <v>0.09481714689025061</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03814036733416886</v>
+        <v>0.0430982225922535</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>44</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1364669387.682812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5037701117.974948</v>
+        <v>3192883374.735919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09417293205497926</v>
+        <v>0.09786640753898783</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05420674164081265</v>
+        <v>0.03721355649478091</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2518850492.498771</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2378634740.591772</v>
+        <v>2496725781.465859</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1030427552128606</v>
+        <v>0.1285036310394702</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04089335661506296</v>
+        <v>0.02728840526462261</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1189317417.914165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2452784490.278955</v>
+        <v>3040328506.264621</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1218090941742333</v>
+        <v>0.1011698038697587</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04811327690354348</v>
+        <v>0.04399907252944345</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>43</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1226392284.62661</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2139517124.224606</v>
+        <v>1792570825.968218</v>
       </c>
       <c r="F96" t="n">
-        <v>0.124027413042725</v>
+        <v>0.1316964343726086</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03606863523447839</v>
+        <v>0.04734905951834708</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1069758534.164982</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3395218258.661149</v>
+        <v>4161587301.666547</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1086743732852976</v>
+        <v>0.1364901680318207</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01819899790057394</v>
+        <v>0.02067681372825198</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1697609137.048596</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2974697733.70568</v>
+        <v>2764085280.189817</v>
       </c>
       <c r="F98" t="n">
-        <v>0.117351410004626</v>
+        <v>0.08850526739962795</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03154970643570003</v>
+        <v>0.02850941505874712</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>48</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1487348849.825011</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2259238724.338427</v>
+        <v>2231395195.41835</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1099806767112615</v>
+        <v>0.1346070772207651</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03258942249908314</v>
+        <v>0.03306449151861172</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>56</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1129619294.42469</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3960245578.231415</v>
+        <v>4617536802.096447</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1397097371364903</v>
+        <v>0.1771514913423427</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02309523943493828</v>
+        <v>0.02418169318688747</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>55</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1980122856.578917</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2958142850.387368</v>
+        <v>3191201775.835471</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1851737450516453</v>
+        <v>0.2009397865655598</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05223719330746453</v>
+        <v>0.05481118589639298</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>74</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1479071508.668988</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_181.xlsx
+++ b/output/fit_clients/fit_round_181.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2180076136.418225</v>
+        <v>1805366240.492935</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09788762856834084</v>
+        <v>0.1106261484634402</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04158015733421752</v>
+        <v>0.04295999253140184</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2593999645.278712</v>
+        <v>2047091399.587818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1481000016618585</v>
+        <v>0.170070502278788</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03598622784710927</v>
+        <v>0.04447200563546367</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4877601002.158623</v>
+        <v>4015303305.410726</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1214477771012606</v>
+        <v>0.1219060469638338</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02976693427927221</v>
+        <v>0.02369963319893217</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3615511451.261095</v>
+        <v>3277803847.024037</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0759768521557985</v>
+        <v>0.07756343889710413</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04017955880914666</v>
+        <v>0.03655442787520524</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2667031015.897603</v>
+        <v>2851342176.417186</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1123921866143584</v>
+        <v>0.1474040129151297</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04561807144738739</v>
+        <v>0.04337896582095505</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2041755151.917816</v>
+        <v>2325249233.102662</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1011134918982869</v>
+        <v>0.0620619200520925</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03336963304503743</v>
+        <v>0.04605587109480386</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3823430482.816325</v>
+        <v>2839973060.561109</v>
       </c>
       <c r="F8" t="n">
-        <v>0.217756623639119</v>
+        <v>0.1435046558468438</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02237329499509073</v>
+        <v>0.02052316726003705</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1589642500.529282</v>
+        <v>1925348560.972468</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1783308236781211</v>
+        <v>0.1411516397888354</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03242414311594288</v>
+        <v>0.03203644136990339</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5285267725.615553</v>
+        <v>4514899780.361838</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1683888364266442</v>
+        <v>0.2005614418492372</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05260527418772953</v>
+        <v>0.05218466823227692</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3958129657.316302</v>
+        <v>3579449723.916376</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1635989795212775</v>
+        <v>0.1508833089956195</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04998242061426377</v>
+        <v>0.04034061169919459</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2111401751.840088</v>
+        <v>2049373142.103241</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1785788261978801</v>
+        <v>0.1584033116223713</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04748885437894452</v>
+        <v>0.03994434385030433</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4817214416.57795</v>
+        <v>3357088751.094088</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08056870233620597</v>
+        <v>0.07181788007847019</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02329986216956196</v>
+        <v>0.02483248023489445</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3181209151.505953</v>
+        <v>3833197891.603694</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1551954237031986</v>
+        <v>0.1872367202161738</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02684318117203982</v>
+        <v>0.03443273201505713</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1404428272.303482</v>
+        <v>1205537821.430925</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1055875081593216</v>
+        <v>0.06892920013895494</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03904302718347784</v>
+        <v>0.04270803524346974</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2039348994.273</v>
+        <v>2063786151.213771</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09672083360779289</v>
+        <v>0.09173563377057965</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03954655285603841</v>
+        <v>0.03384911197574504</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3872554006.118103</v>
+        <v>4443017461.59206</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1666360494239914</v>
+        <v>0.1492268730584522</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03588323224485413</v>
+        <v>0.03290738893465577</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2739500609.794141</v>
+        <v>2418934598.16007</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1731891782484846</v>
+        <v>0.1648198317843217</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0283867549045139</v>
+        <v>0.02456886775705805</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1186750085.67612</v>
+        <v>1233909554.211118</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1596785317453399</v>
+        <v>0.1245408722172818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.026160655496179</v>
+        <v>0.01803000938412141</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1886738696.776823</v>
+        <v>1937224280.016981</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1604848468369121</v>
+        <v>0.1208387494592026</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02140949141911789</v>
+        <v>0.03078732832377113</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2205898228.196527</v>
+        <v>2527180433.895534</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0707255627685625</v>
+        <v>0.07825261538375465</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03782244046427646</v>
+        <v>0.02794160020604819</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3031407876.730013</v>
+        <v>3508292789.459599</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1138879024894541</v>
+        <v>0.1390790723261371</v>
       </c>
       <c r="G22" t="n">
-        <v>0.043059498664753</v>
+        <v>0.03743579845476951</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1065855306.054339</v>
+        <v>1219008699.169492</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1161934409240819</v>
+        <v>0.1333719924149421</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04594462559047587</v>
+        <v>0.04185817736742461</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3885201414.553639</v>
+        <v>3807575584.612392</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1320645494940735</v>
+        <v>0.1007490991931864</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02336714916070807</v>
+        <v>0.03212723935825514</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>980825671.5818396</v>
+        <v>1119819228.72957</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1185236551508238</v>
+        <v>0.09109574208258971</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02126612336644013</v>
+        <v>0.02497057738145255</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>936093568.8096581</v>
+        <v>888366109.0635927</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07882227972990423</v>
+        <v>0.1141019760804722</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03199317740197118</v>
+        <v>0.03217753978460579</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4438874783.248386</v>
+        <v>4379789932.848887</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1246184672290144</v>
+        <v>0.1329406048025724</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02112063888612912</v>
+        <v>0.0222655214210178</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3287288714.864835</v>
+        <v>2472717463.900199</v>
       </c>
       <c r="F28" t="n">
-        <v>0.133712489371498</v>
+        <v>0.1161300370123417</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04848950690103186</v>
+        <v>0.04397592870417352</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5219308377.638421</v>
+        <v>5317593141.689601</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1253632647200095</v>
+        <v>0.1052955381910497</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04325701712584877</v>
+        <v>0.0422852722250061</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1826076809.441345</v>
+        <v>1953036713.096591</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1160593678781527</v>
+        <v>0.1264044698664652</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0349985263238775</v>
+        <v>0.03162519609206898</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1346585130.297205</v>
+        <v>1424746766.095232</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09913798022710357</v>
+        <v>0.09112970098834082</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03931125941968684</v>
+        <v>0.03213151272494999</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1694244877.956073</v>
+        <v>1332799993.021366</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0817913248465699</v>
+        <v>0.08398554288631831</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03101616920982697</v>
+        <v>0.03628843321244411</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2949593096.05716</v>
+        <v>2956621884.436191</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1500407369962867</v>
+        <v>0.2065658170307521</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04813793222391571</v>
+        <v>0.04999897929597011</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1399274828.739379</v>
+        <v>1249215167.720447</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1016492956302383</v>
+        <v>0.0803627432914238</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01893651195191929</v>
+        <v>0.02339495727026259</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1031859068.858252</v>
+        <v>1345671042.204066</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1102359833912765</v>
+        <v>0.07195170719073334</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03960411794510542</v>
+        <v>0.04458027923099914</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3095542733.804765</v>
+        <v>2790234821.029869</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1649448827886182</v>
+        <v>0.1391360042818339</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02205243570737204</v>
+        <v>0.0202233267537487</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2839829202.731476</v>
+        <v>2642257305.160917</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09543344942826315</v>
+        <v>0.0746695054336006</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02949577800120338</v>
+        <v>0.03312057595345776</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2171915123.546784</v>
+        <v>1386049160.94705</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09907547205817803</v>
+        <v>0.08148088957244663</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03764069144947612</v>
+        <v>0.03489111838294182</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1628647056.56722</v>
+        <v>1639161784.543005</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1916905990436642</v>
+        <v>0.1214318246006273</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0297842039940904</v>
+        <v>0.03143888975775923</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1243806655.105863</v>
+        <v>1537678551.402311</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09790969024730289</v>
+        <v>0.158088241863395</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03833607181399958</v>
+        <v>0.05209802132830602</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2340286957.532929</v>
+        <v>2234378347.626106</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1380925685711195</v>
+        <v>0.12872586174963</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03550943574526227</v>
+        <v>0.03412531691877025</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2631220003.13482</v>
+        <v>3104994709.461874</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09374016826843094</v>
+        <v>0.1088553621463625</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04455746318851331</v>
+        <v>0.04130581597515873</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2020487862.820369</v>
+        <v>2431642345.812026</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1704254838843319</v>
+        <v>0.1815380970326671</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02418102037604312</v>
+        <v>0.02020943200402426</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1904350886.336747</v>
+        <v>1448640150.829646</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06517484707842063</v>
+        <v>0.09813317349686507</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03287809308976835</v>
+        <v>0.02789846711902193</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2122720985.661075</v>
+        <v>2294513167.843467</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1770492809852732</v>
+        <v>0.1846766086566761</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0421736794311868</v>
+        <v>0.04700149956010581</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3653858943.486217</v>
+        <v>4011170258.759123</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1329062512249098</v>
+        <v>0.1394091958664038</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04360398808201531</v>
+        <v>0.03761127466751341</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4883144321.799049</v>
+        <v>4437405838.117712</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1350860562459929</v>
+        <v>0.123864824984808</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03818229316768136</v>
+        <v>0.04909951680397588</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2862840956.960216</v>
+        <v>4111655545.393917</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1079423314755321</v>
+        <v>0.07018681288133514</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02637513797068643</v>
+        <v>0.03085758216847305</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1931786747.324366</v>
+        <v>1878122854.005829</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1835224179610689</v>
+        <v>0.1652781644412674</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02745445617765473</v>
+        <v>0.02971292266448465</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3896173418.183008</v>
+        <v>4099102382.967582</v>
       </c>
       <c r="F50" t="n">
-        <v>0.143900866898212</v>
+        <v>0.1591143130149646</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05117045465716796</v>
+        <v>0.03362029981197936</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1344521660.814293</v>
+        <v>1466857354.173079</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1201648994275012</v>
+        <v>0.1944913023830123</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04967906905187378</v>
+        <v>0.03916674185002043</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3862451721.220456</v>
+        <v>4234492093.325721</v>
       </c>
       <c r="F52" t="n">
-        <v>0.120535857605108</v>
+        <v>0.1291327699452596</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04411873792915311</v>
+        <v>0.04468497625703074</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3708500679.330891</v>
+        <v>2571702968.243457</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1380429090660059</v>
+        <v>0.190031367024618</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03452119577582845</v>
+        <v>0.0223360795787233</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3590780305.929404</v>
+        <v>3801550320.232251</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1376713262340932</v>
+        <v>0.1425809410267779</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0351252388388299</v>
+        <v>0.04120529562980278</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3891603433.336795</v>
+        <v>3255388086.523834</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2228182098964384</v>
+        <v>0.1380348128718974</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02317388831083088</v>
+        <v>0.02005932319557185</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1851857578.618304</v>
+        <v>1529849463.185447</v>
       </c>
       <c r="F56" t="n">
-        <v>0.13992478646943</v>
+        <v>0.1222005286993471</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05698753372128306</v>
+        <v>0.05667165358172131</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2849977912.901026</v>
+        <v>3293720074.28613</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1255627410982931</v>
+        <v>0.1544409212562201</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02466057480424048</v>
+        <v>0.02013874678782795</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1183465982.466935</v>
+        <v>1799306734.88627</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1789998892614579</v>
+        <v>0.1821904986551281</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03029023695178591</v>
+        <v>0.03438835353286097</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5037550801.040719</v>
+        <v>5070887199.205811</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1198334699397351</v>
+        <v>0.1125974461503366</v>
       </c>
       <c r="G59" t="n">
-        <v>0.041355819809592</v>
+        <v>0.04202987891034426</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2868745334.878072</v>
+        <v>2381911466.073703</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1528938385731904</v>
+        <v>0.1427371513194485</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03228562300543016</v>
+        <v>0.02827097585712081</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3152655421.193545</v>
+        <v>2610503264.200561</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1301128774859527</v>
+        <v>0.1177738228769705</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02020405850693295</v>
+        <v>0.02513638908978464</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1932161923.456559</v>
+        <v>1520842154.249956</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1830856205118957</v>
+        <v>0.183784914153915</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03942846543163826</v>
+        <v>0.03223975776596708</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5007450501.715818</v>
+        <v>4583032693.835296</v>
       </c>
       <c r="F63" t="n">
-        <v>0.107907735190058</v>
+        <v>0.09924686072314605</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03311934059462122</v>
+        <v>0.03320237246553737</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4943287348.442644</v>
+        <v>4017952541.8901</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1250110261971752</v>
+        <v>0.1195157770266404</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03484319281477385</v>
+        <v>0.02185352682776737</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3750971266.204029</v>
+        <v>4460033176.17537</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1600858170843426</v>
+        <v>0.1205553248129309</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02255039027356955</v>
+        <v>0.03002150372051643</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4648050610.284659</v>
+        <v>4843219046.4207</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1122673515126053</v>
+        <v>0.1118184027001142</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03136501785741604</v>
+        <v>0.03194139000700071</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2708728690.469048</v>
+        <v>3165887905.765599</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1001675944035912</v>
+        <v>0.07291443508195262</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04137546236932099</v>
+        <v>0.04648031708393375</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5005099745.096721</v>
+        <v>4626311715.72346</v>
       </c>
       <c r="F68" t="n">
-        <v>0.098584667173177</v>
+        <v>0.1059052314230454</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05061316765304153</v>
+        <v>0.04574374179515853</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1569585233.206673</v>
+        <v>2063738779.527644</v>
       </c>
       <c r="F69" t="n">
-        <v>0.183435167363996</v>
+        <v>0.1122126259681362</v>
       </c>
       <c r="G69" t="n">
-        <v>0.054070007647784</v>
+        <v>0.04251126230124856</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2966107755.240615</v>
+        <v>2309246626.010085</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08334821239486279</v>
+        <v>0.07594666806778304</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03871065918748166</v>
+        <v>0.04549294559493425</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3885979125.101541</v>
+        <v>3730808132.214857</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1838987577567223</v>
+        <v>0.1170428794112304</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02365889579309538</v>
+        <v>0.02101487324024426</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1553237776.891348</v>
+        <v>1676836909.784317</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09029754884663885</v>
+        <v>0.08377837826623689</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04999679056271169</v>
+        <v>0.04455259607872068</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2903226085.849018</v>
+        <v>2402321701.256194</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1111148707889796</v>
+        <v>0.07861884344242782</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04624668999216755</v>
+        <v>0.03210389203456382</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3774508415.166844</v>
+        <v>3629553523.44918</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1226048176192287</v>
+        <v>0.1144492584784635</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0286918720155845</v>
+        <v>0.03397326410812501</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1544996331.003666</v>
+        <v>1855779634.328441</v>
       </c>
       <c r="F75" t="n">
-        <v>0.163934080840852</v>
+        <v>0.1449591150718323</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02534423681681987</v>
+        <v>0.02744762629452151</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4649093246.894073</v>
+        <v>4073185671.833479</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09496838708117127</v>
+        <v>0.0762109196967356</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02771894168048439</v>
+        <v>0.02132340960642632</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2039956603.519529</v>
+        <v>1895471297.311072</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1799191282969167</v>
+        <v>0.1206602402423297</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02830466164037453</v>
+        <v>0.02420396426843163</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4642299732.766314</v>
+        <v>3434282981.674022</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1162415820431955</v>
+        <v>0.110434611203834</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03684582579982519</v>
+        <v>0.04610112725786331</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1169381548.039947</v>
+        <v>1918486635.712917</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1106939117243108</v>
+        <v>0.1327575977787997</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0323887019715693</v>
+        <v>0.02928041804155007</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3397692949.119701</v>
+        <v>5290036071.990724</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09211721909427009</v>
+        <v>0.1116983352023847</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02499390694996059</v>
+        <v>0.0376997275044743</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4028227721.944048</v>
+        <v>4994056628.844391</v>
       </c>
       <c r="F81" t="n">
-        <v>0.098389955704086</v>
+        <v>0.1015733455307492</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02453375583722121</v>
+        <v>0.02913142678440793</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5269426287.177723</v>
+        <v>4420246917.31147</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1409112547814262</v>
+        <v>0.1597672278485615</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02468009589720607</v>
+        <v>0.02480942644927031</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2316288805.613982</v>
+        <v>1959155747.306222</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1476202166084597</v>
+        <v>0.1267979398014847</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0304903135839637</v>
+        <v>0.03316296231537197</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2520138336.866366</v>
+        <v>1757516874.320118</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08551615354560381</v>
+        <v>0.1122931949605097</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04160525744674912</v>
+        <v>0.04176978045597919</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2912439221.526705</v>
+        <v>3287661598.743103</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1305864661864053</v>
+        <v>0.1264980676704415</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04764988255116123</v>
+        <v>0.05484872786175209</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2335210526.494514</v>
+        <v>2011629161.570714</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1089523324693889</v>
+        <v>0.1472947510907658</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0180739372469052</v>
+        <v>0.02124509464633945</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1428697287.031857</v>
+        <v>1152737679.52903</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1588340800582321</v>
+        <v>0.1330158431712143</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04113927746264633</v>
+        <v>0.02807428354111938</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2350998267.429526</v>
+        <v>3225936357.282062</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1227250025035728</v>
+        <v>0.1289042062576718</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02813206809557705</v>
+        <v>0.02943630464662011</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2444382524.967299</v>
+        <v>3304078976.406615</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1595939054652209</v>
+        <v>0.09649251535674594</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04155761740916533</v>
+        <v>0.03323755128708452</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2074487319.217097</v>
+        <v>2042603736.777701</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1294507458786957</v>
+        <v>0.1010439127371219</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04136879995202582</v>
+        <v>0.04703208488209244</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1401863041.570546</v>
+        <v>1291007741.616337</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1841554322862961</v>
+        <v>0.1504990750110955</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05096035339862859</v>
+        <v>0.05361365737915669</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2051645396.9311</v>
+        <v>2353577279.568153</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09481714689025061</v>
+        <v>0.1096677552341966</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0430982225922535</v>
+        <v>0.04476087264460193</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3192883374.735919</v>
+        <v>4135347034.038413</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09786640753898783</v>
+        <v>0.1020056735158297</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03721355649478091</v>
+        <v>0.04068894289508479</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2496725781.465859</v>
+        <v>2354999642.470718</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1285036310394702</v>
+        <v>0.1328046641047071</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02728840526462261</v>
+        <v>0.02876904971187327</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3040328506.264621</v>
+        <v>2940583181.056672</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1011698038697587</v>
+        <v>0.1260810810207332</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04399907252944345</v>
+        <v>0.03736756322658511</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1792570825.968218</v>
+        <v>2068892402.720733</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1316964343726086</v>
+        <v>0.100336765812248</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04734905951834708</v>
+        <v>0.04259213004549037</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4161587301.666547</v>
+        <v>4281241808.346472</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1364901680318207</v>
+        <v>0.113502933856324</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02067681372825198</v>
+        <v>0.02843738775942418</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2764085280.189817</v>
+        <v>3596089099.360603</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08850526739962795</v>
+        <v>0.09637094185343249</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02850941505874712</v>
+        <v>0.0265772125300771</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2231395195.41835</v>
+        <v>3072303688.91976</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1346070772207651</v>
+        <v>0.1043270279233754</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03306449151861172</v>
+        <v>0.02800972078999207</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4617536802.096447</v>
+        <v>3885745022.913211</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1771514913423427</v>
+        <v>0.171522794033819</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02418169318688747</v>
+        <v>0.02689635045317785</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3191201775.835471</v>
+        <v>3518490013.231457</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2009397865655598</v>
+        <v>0.1930949950035152</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05481118589639298</v>
+        <v>0.05549614322288354</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_181.xlsx
+++ b/output/fit_clients/fit_round_181.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1805366240.492935</v>
+        <v>2274659105.463776</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1106261484634402</v>
+        <v>0.06927798434828542</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04295999253140184</v>
+        <v>0.04256879545185908</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2047091399.587818</v>
+        <v>2161293194.047203</v>
       </c>
       <c r="F3" t="n">
-        <v>0.170070502278788</v>
+        <v>0.1460199119770112</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04447200563546367</v>
+        <v>0.03532861260908431</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4015303305.410726</v>
+        <v>4023787059.118196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1219060469638338</v>
+        <v>0.1562436798612948</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02369963319893217</v>
+        <v>0.02560665936457533</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>99</v>
+      </c>
+      <c r="J4" t="n">
+        <v>181</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3277803847.024037</v>
+        <v>3665128185.488415</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07756343889710413</v>
+        <v>0.1004817794361964</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03655442787520524</v>
+        <v>0.03085739835491093</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74</v>
+      </c>
+      <c r="J5" t="n">
+        <v>180</v>
+      </c>
+      <c r="K5" t="n">
+        <v>124.7457678234106</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2851342176.417186</v>
+        <v>2784260421.407363</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1474040129151297</v>
+        <v>0.09367435935967637</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04337896582095505</v>
+        <v>0.03464514939152456</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2325249233.102662</v>
+        <v>2621772936.376661</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0620619200520925</v>
+        <v>0.0625491324243526</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04605587109480386</v>
+        <v>0.04887562545140187</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2839973060.561109</v>
+        <v>2439911512.907348</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1435046558468438</v>
+        <v>0.1700720904046561</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02052316726003705</v>
+        <v>0.02774092500891237</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>51</v>
+      </c>
+      <c r="J8" t="n">
+        <v>180</v>
+      </c>
+      <c r="K8" t="n">
+        <v>48.32220952271427</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1925348560.972468</v>
+        <v>1902719572.845308</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1411516397888354</v>
+        <v>0.1632713604601171</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03203644136990339</v>
+        <v>0.03451048926567915</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4514899780.361838</v>
+        <v>4940218930.060905</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2005614418492372</v>
+        <v>0.1394413509572418</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05218466823227692</v>
+        <v>0.03613422245199079</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>166</v>
+      </c>
+      <c r="J10" t="n">
+        <v>181</v>
+      </c>
+      <c r="K10" t="n">
+        <v>139.0513619251447</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3579449723.916376</v>
+        <v>2942984861.84964</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1508833089956195</v>
+        <v>0.1871344652615615</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04034061169919459</v>
+        <v>0.03589051187298944</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>76</v>
+      </c>
+      <c r="J11" t="n">
+        <v>179</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2049373142.103241</v>
+        <v>3023492868.163945</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1584033116223713</v>
+        <v>0.1492704712782689</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03994434385030433</v>
+        <v>0.03771799072715936</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3357088751.094088</v>
+        <v>4255723649.142415</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07181788007847019</v>
+        <v>0.06914869273381746</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02483248023489445</v>
+        <v>0.02744693719576921</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>89</v>
+      </c>
+      <c r="J13" t="n">
+        <v>181</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3833197891.603694</v>
+        <v>3696461908.617169</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1872367202161738</v>
+        <v>0.1778799912682405</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03443273201505713</v>
+        <v>0.04372612762805306</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34</v>
+      </c>
+      <c r="J14" t="n">
+        <v>180</v>
+      </c>
+      <c r="K14" t="n">
+        <v>110.8199612835628</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1205537821.430925</v>
+        <v>1131341735.27457</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06892920013895494</v>
+        <v>0.1091102829722983</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04270803524346974</v>
+        <v>0.04147223608616577</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2063786151.213771</v>
+        <v>2851426772.023885</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09173563377057965</v>
+        <v>0.1154123648822092</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03384911197574504</v>
+        <v>0.04244490234429042</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4443017461.59206</v>
+        <v>4801894742.818788</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1492268730584522</v>
+        <v>0.1693893648362723</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03290738893465577</v>
+        <v>0.0459101416109647</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>87</v>
+      </c>
+      <c r="J17" t="n">
+        <v>180</v>
+      </c>
+      <c r="K17" t="n">
+        <v>116.6138421260494</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2418934598.16007</v>
+        <v>3017437605.16284</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1648198317843217</v>
+        <v>0.1628816090193093</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02456886775705805</v>
+        <v>0.02176154360623016</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>45</v>
+      </c>
+      <c r="J18" t="n">
+        <v>174</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1233909554.211118</v>
+        <v>1142358239.107281</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1245408722172818</v>
+        <v>0.1791973310267788</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01803000938412141</v>
+        <v>0.02344412274326725</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1937224280.016981</v>
+        <v>1756912753.437803</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1208387494592026</v>
+        <v>0.1115012155491426</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03078732832377113</v>
+        <v>0.02677852236412517</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2527180433.895534</v>
+        <v>2232423465.332647</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07825261538375465</v>
+        <v>0.0987804735589278</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02794160020604819</v>
+        <v>0.04197164069874511</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3508292789.459599</v>
+        <v>4029127555.334319</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1390790723261371</v>
+        <v>0.09427422742806937</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03743579845476951</v>
+        <v>0.05720223720323589</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>46</v>
+      </c>
+      <c r="J22" t="n">
+        <v>181</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1219008699.169492</v>
+        <v>1317106569.408753</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1333719924149421</v>
+        <v>0.1807885827166258</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04185817736742461</v>
+        <v>0.05252654473423124</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3807575584.612392</v>
+        <v>3633399574.640995</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1007490991931864</v>
+        <v>0.1501547089700305</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03212723935825514</v>
+        <v>0.03094698560834846</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>55</v>
+      </c>
+      <c r="J24" t="n">
+        <v>181</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1119819228.72957</v>
+        <v>952584376.0817926</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09109574208258971</v>
+        <v>0.09251283527078295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02497057738145255</v>
+        <v>0.01980629092152077</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>888366109.0635927</v>
+        <v>1033668742.495969</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1141019760804722</v>
+        <v>0.1236356032769422</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03217753978460579</v>
+        <v>0.03769888999997086</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4379789932.848887</v>
+        <v>3505343102.999749</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1329406048025724</v>
+        <v>0.1404023625004395</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0222655214210178</v>
+        <v>0.01888500759248355</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>71</v>
+      </c>
+      <c r="J27" t="n">
+        <v>181</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2472717463.900199</v>
+        <v>3840605295.58334</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1161300370123417</v>
+        <v>0.1251460220445024</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04397592870417352</v>
+        <v>0.0451585064439758</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>35</v>
+      </c>
+      <c r="J28" t="n">
+        <v>181</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5317593141.689601</v>
+        <v>3753784870.010261</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1052955381910497</v>
+        <v>0.134491596288028</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0422852722250061</v>
+        <v>0.02968135375172662</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>170</v>
+      </c>
+      <c r="J29" t="n">
+        <v>181</v>
+      </c>
+      <c r="K29" t="n">
+        <v>130.3102307014454</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1953036713.096591</v>
+        <v>1784516362.151352</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1264044698664652</v>
+        <v>0.1061518215093905</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03162519609206898</v>
+        <v>0.02845673367734518</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1424746766.095232</v>
+        <v>1192779582.415058</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09112970098834082</v>
+        <v>0.1078030578389296</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03213151272494999</v>
+        <v>0.04709045707433597</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1332799993.021366</v>
+        <v>1494901044.570318</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08398554288631831</v>
+        <v>0.09145016657559032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03628843321244411</v>
+        <v>0.03401685818283402</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2956621884.436191</v>
+        <v>2375848085.341231</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2065658170307521</v>
+        <v>0.1541043841954909</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04999897929597011</v>
+        <v>0.04683060226326174</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1249215167.720447</v>
+        <v>1420700481.656718</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0803627432914238</v>
+        <v>0.09166323734716698</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02339495727026259</v>
+        <v>0.02304354783661154</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1345671042.204066</v>
+        <v>977393346.4096701</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07195170719073334</v>
+        <v>0.1032500296694839</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04458027923099914</v>
+        <v>0.02964846781019081</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2790234821.029869</v>
+        <v>2144150553.928311</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1391360042818339</v>
+        <v>0.1325692617577393</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0202233267537487</v>
+        <v>0.0282124806016652</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2642257305.160917</v>
+        <v>2437745507.157749</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0746695054336006</v>
+        <v>0.1106614272548541</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03312057595345776</v>
+        <v>0.02593938602542619</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1386049160.94705</v>
+        <v>2063441462.757601</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08148088957244663</v>
+        <v>0.09511341122301029</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03489111838294182</v>
+        <v>0.03241334279524337</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1639161784.543005</v>
+        <v>2146811442.606687</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1214318246006273</v>
+        <v>0.1388696835088138</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03143888975775923</v>
+        <v>0.02311095067319547</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1537678551.402311</v>
+        <v>1493609150.453593</v>
       </c>
       <c r="F40" t="n">
-        <v>0.158088241863395</v>
+        <v>0.1051852744320146</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05209802132830602</v>
+        <v>0.03674998714266067</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2234378347.626106</v>
+        <v>2555663907.674847</v>
       </c>
       <c r="F41" t="n">
-        <v>0.12872586174963</v>
+        <v>0.156281589914462</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03412531691877025</v>
+        <v>0.03816326461060252</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3104994709.461874</v>
+        <v>3315068391.481543</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1088553621463625</v>
+        <v>0.0926044321261232</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04130581597515873</v>
+        <v>0.03307726803680668</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>70</v>
+      </c>
+      <c r="J42" t="n">
+        <v>180</v>
+      </c>
+      <c r="K42" t="n">
+        <v>90.36443603840173</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2431642345.812026</v>
+        <v>2701792166.409819</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1815380970326671</v>
+        <v>0.205214746525863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02020943200402426</v>
+        <v>0.0165829500149854</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1448640150.829646</v>
+        <v>1550731917.517447</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09813317349686507</v>
+        <v>0.07660030319787781</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02789846711902193</v>
+        <v>0.02236148659840529</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2294513167.843467</v>
+        <v>2428112404.49461</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1846766086566761</v>
+        <v>0.1438471136535414</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04700149956010581</v>
+        <v>0.05257070791981282</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4011170258.759123</v>
+        <v>3508564323.097991</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1394091958664038</v>
+        <v>0.1557804865296971</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03761127466751341</v>
+        <v>0.05971335331863743</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>102</v>
+      </c>
+      <c r="J46" t="n">
+        <v>181</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4437405838.117712</v>
+        <v>3219071556.742135</v>
       </c>
       <c r="F47" t="n">
-        <v>0.123864824984808</v>
+        <v>0.1496259261923168</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04909951680397588</v>
+        <v>0.03954006566390203</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>80</v>
+      </c>
+      <c r="J47" t="n">
+        <v>178</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4111655545.393917</v>
+        <v>4046126153.801719</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07018681288133514</v>
+        <v>0.08935430471847654</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03085758216847305</v>
+        <v>0.03648917807120835</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>83</v>
+      </c>
+      <c r="J48" t="n">
+        <v>181</v>
+      </c>
+      <c r="K48" t="n">
+        <v>131.2435292061853</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1878122854.005829</v>
+        <v>1980868059.025872</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1652781644412674</v>
+        <v>0.1453982832577308</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02971292266448465</v>
+        <v>0.03621982167636698</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4099102382.967582</v>
+        <v>2680828759.740238</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1591143130149646</v>
+        <v>0.1680703752338019</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03362029981197936</v>
+        <v>0.04081601901400063</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>57</v>
+      </c>
+      <c r="J50" t="n">
+        <v>175</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1466857354.173079</v>
+        <v>949307291.3660165</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1944913023830123</v>
+        <v>0.1554874978937914</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03916674185002043</v>
+        <v>0.04655612344323224</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4234492093.325721</v>
+        <v>3969017292.079309</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1291327699452596</v>
+        <v>0.09322310312850057</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04468497625703074</v>
+        <v>0.05427147063656149</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>128</v>
+      </c>
+      <c r="J52" t="n">
+        <v>180</v>
+      </c>
+      <c r="K52" t="n">
+        <v>127.2789462904815</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2571702968.243457</v>
+        <v>3299872891.992463</v>
       </c>
       <c r="F53" t="n">
-        <v>0.190031367024618</v>
+        <v>0.1415108094010347</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0223360795787233</v>
+        <v>0.03101081249422075</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>178</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3801550320.232251</v>
+        <v>4982463657.068449</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1425809410267779</v>
+        <v>0.1388262215888801</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04120529562980278</v>
+        <v>0.0414085405657371</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>92</v>
+      </c>
+      <c r="J54" t="n">
+        <v>181</v>
+      </c>
+      <c r="K54" t="n">
+        <v>130.5961279835438</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3255388086.523834</v>
+        <v>4033632832.665682</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1380348128718974</v>
+        <v>0.182006187133984</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02005932319557185</v>
+        <v>0.03182811410076936</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>82</v>
+      </c>
+      <c r="J55" t="n">
+        <v>180</v>
+      </c>
+      <c r="K55" t="n">
+        <v>121.5078125406962</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1529849463.185447</v>
+        <v>1155708301.6694</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1222005286993471</v>
+        <v>0.1525237242661656</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05667165358172131</v>
+        <v>0.04379498803566687</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3293720074.28613</v>
+        <v>3402148559.571041</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1544409212562201</v>
+        <v>0.1495718016543653</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02013874678782795</v>
+        <v>0.02332267786591183</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>73</v>
+      </c>
+      <c r="J57" t="n">
+        <v>181</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1799306734.88627</v>
+        <v>1728141013.161273</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1821904986551281</v>
+        <v>0.1769352855576144</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03438835353286097</v>
+        <v>0.03130695221484517</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5070887199.205811</v>
+        <v>5062466332.038009</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1125974461503366</v>
+        <v>0.1127969569374118</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04202987891034426</v>
+        <v>0.03320746412598861</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>87</v>
+      </c>
+      <c r="J59" t="n">
+        <v>180</v>
+      </c>
+      <c r="K59" t="n">
+        <v>117.4466436594085</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2381911466.073703</v>
+        <v>2902574925.752946</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1427371513194485</v>
+        <v>0.1829165895525516</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02827097585712081</v>
+        <v>0.03315505365949655</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2610503264.200561</v>
+        <v>2905445072.303123</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1177738228769705</v>
+        <v>0.1159159606061504</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02513638908978464</v>
+        <v>0.0320263327804139</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1520842154.249956</v>
+        <v>1732266561.801564</v>
       </c>
       <c r="F62" t="n">
-        <v>0.183784914153915</v>
+        <v>0.1734270192800972</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03223975776596708</v>
+        <v>0.04482801164045502</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4583032693.835296</v>
+        <v>3869782857.244817</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09924686072314605</v>
+        <v>0.07809104208211085</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03320237246553737</v>
+        <v>0.04081855062880695</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>89</v>
+      </c>
+      <c r="J63" t="n">
+        <v>180</v>
+      </c>
+      <c r="K63" t="n">
+        <v>114.2451477272494</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4017952541.8901</v>
+        <v>3572119980.393592</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1195157770266404</v>
+        <v>0.1899606251810607</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02185352682776737</v>
+        <v>0.02547246507599199</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>89</v>
+      </c>
+      <c r="J64" t="n">
+        <v>180</v>
+      </c>
+      <c r="K64" t="n">
+        <v>98.06215575072089</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2734,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4460033176.17537</v>
+        <v>3953104530.10471</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1205553248129309</v>
+        <v>0.155639727985016</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03002150372051643</v>
+        <v>0.02969339932139026</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>147</v>
+      </c>
+      <c r="J65" t="n">
+        <v>180</v>
+      </c>
+      <c r="K65" t="n">
+        <v>129.8111364003814</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2771,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4843219046.4207</v>
+        <v>5552673506.338194</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1118184027001142</v>
+        <v>0.1063448083857067</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03194139000700071</v>
+        <v>0.04961371081772341</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>89</v>
+      </c>
+      <c r="J66" t="n">
+        <v>180</v>
+      </c>
+      <c r="K66" t="n">
+        <v>117.17290001631</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3165887905.765599</v>
+        <v>2133583517.959868</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07291443508195262</v>
+        <v>0.08092837029921364</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04648031708393375</v>
+        <v>0.04139310818943854</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2837,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4626311715.72346</v>
+        <v>4726408138.22301</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1059052314230454</v>
+        <v>0.1536155836146493</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04574374179515853</v>
+        <v>0.03334359030973783</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>91</v>
+      </c>
+      <c r="J68" t="n">
+        <v>180</v>
+      </c>
+      <c r="K68" t="n">
+        <v>122.3770043503947</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2063738779.527644</v>
+        <v>1785453504.722492</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1122126259681362</v>
+        <v>0.1409421690339698</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04251126230124856</v>
+        <v>0.05106381317756542</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2915,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2309246626.010085</v>
+        <v>2691127213.334653</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07594666806778304</v>
+        <v>0.06600641125226485</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04549294559493425</v>
+        <v>0.03808179320769407</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2944,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3730808132.214857</v>
+        <v>3838799983.88348</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1170428794112304</v>
+        <v>0.1435886155259493</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02101487324024426</v>
+        <v>0.02970927002687969</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>142</v>
+      </c>
+      <c r="J71" t="n">
+        <v>180</v>
+      </c>
+      <c r="K71" t="n">
+        <v>121.5171859499641</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2981,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1676836909.784317</v>
+        <v>1586612063.09641</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08377837826623689</v>
+        <v>0.0879391283844682</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04455259607872068</v>
+        <v>0.03838967092082934</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3016,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2402321701.256194</v>
+        <v>3005899158.500994</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07861884344242782</v>
+        <v>0.08691244469155109</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03210389203456382</v>
+        <v>0.04858922722333708</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3051,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3629553523.44918</v>
+        <v>2897983657.664276</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1144492584784635</v>
+        <v>0.184663697868231</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03397326410812501</v>
+        <v>0.0273335863572075</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>53</v>
+      </c>
+      <c r="J74" t="n">
+        <v>178</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1855779634.328441</v>
+        <v>1905131564.549495</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1449591150718323</v>
+        <v>0.1384002394459823</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02744762629452151</v>
+        <v>0.0318855326297945</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4073185671.833479</v>
+        <v>3372631222.098451</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0762109196967356</v>
+        <v>0.1244135225968986</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02132340960642632</v>
+        <v>0.02912686899871802</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>82</v>
+      </c>
+      <c r="J76" t="n">
+        <v>181</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1895471297.311072</v>
+        <v>1984175267.447052</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1206602402423297</v>
+        <v>0.1339507747078373</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02420396426843163</v>
+        <v>0.02593360785099601</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3191,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3434282981.674022</v>
+        <v>3020093746.793466</v>
       </c>
       <c r="F78" t="n">
-        <v>0.110434611203834</v>
+        <v>0.08893944377964171</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04610112725786331</v>
+        <v>0.05254204930578688</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>92</v>
+      </c>
+      <c r="J78" t="n">
+        <v>180</v>
+      </c>
+      <c r="K78" t="n">
+        <v>76.01383635769976</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1918486635.712917</v>
+        <v>1252681488.946023</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1327575977787997</v>
+        <v>0.1225885567422329</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02928041804155007</v>
+        <v>0.03289955167173736</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5290036071.990724</v>
+        <v>4270239695.730596</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1116983352023847</v>
+        <v>0.09686162383952898</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0376997275044743</v>
+        <v>0.03822063265188715</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>88</v>
+      </c>
+      <c r="J80" t="n">
+        <v>181</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3304,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4994056628.844391</v>
+        <v>5150402337.321774</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1015733455307492</v>
+        <v>0.1004729055284708</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02913142678440793</v>
+        <v>0.03086636723153438</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>83</v>
+      </c>
+      <c r="J81" t="n">
+        <v>181</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4420246917.31147</v>
+        <v>4596662753.802009</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1597672278485615</v>
+        <v>0.1586118874672335</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02480942644927031</v>
+        <v>0.01813151577814305</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>134</v>
+      </c>
+      <c r="J82" t="n">
+        <v>181</v>
+      </c>
+      <c r="K82" t="n">
+        <v>135.7872219796682</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1959155747.306222</v>
+        <v>2492445018.627119</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1267979398014847</v>
+        <v>0.1230730465360598</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03316296231537197</v>
+        <v>0.03493185146627448</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1757516874.320118</v>
+        <v>2368793734.87361</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1122931949605097</v>
+        <v>0.09886295474475477</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04176978045597919</v>
+        <v>0.04322170824360336</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3287661598.743103</v>
+        <v>3191394859.696348</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1264980676704415</v>
+        <v>0.1639475363030132</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05484872786175209</v>
+        <v>0.03886640874750709</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2011629161.570714</v>
+        <v>2026763349.196135</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1472947510907658</v>
+        <v>0.1070913226992555</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02124509464633945</v>
+        <v>0.01954270897931451</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1152737679.52903</v>
+        <v>1078977897.174495</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1330158431712143</v>
+        <v>0.1580348124111786</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02807428354111938</v>
+        <v>0.04211388962840031</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3225936357.282062</v>
+        <v>3559315020.131347</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1289042062576718</v>
+        <v>0.143698710154272</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02943630464662011</v>
+        <v>0.03097323131874108</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+      <c r="J88" t="n">
+        <v>181</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3304078976.406615</v>
+        <v>3077954517.380821</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09649251535674594</v>
+        <v>0.1526377097800412</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03323755128708452</v>
+        <v>0.03166474340150522</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2042603736.777701</v>
+        <v>1381212013.651589</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1010439127371219</v>
+        <v>0.1183206799523578</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04703208488209244</v>
+        <v>0.05543378143501644</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1291007741.616337</v>
+        <v>1704675215.836475</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1504990750110955</v>
+        <v>0.1503643522622768</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05361365737915669</v>
+        <v>0.05036745290810232</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2353577279.568153</v>
+        <v>2758108761.948743</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1096677552341966</v>
+        <v>0.07923320097942155</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04476087264460193</v>
+        <v>0.02876466788035878</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4135347034.038413</v>
+        <v>3669957454.782803</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1020056735158297</v>
+        <v>0.0891685686063946</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04068894289508479</v>
+        <v>0.04176430128470517</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>81</v>
+      </c>
+      <c r="J93" t="n">
+        <v>181</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2354999642.470718</v>
+        <v>2299192004.183658</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1328046641047071</v>
+        <v>0.104404711513146</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02876904971187327</v>
+        <v>0.03679831694239744</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2940583181.056672</v>
+        <v>2163226149.7479</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1260810810207332</v>
+        <v>0.1175953008387252</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03736756322658511</v>
+        <v>0.04706070345781997</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2068892402.720733</v>
+        <v>1947201899.995298</v>
       </c>
       <c r="F96" t="n">
-        <v>0.100336765812248</v>
+        <v>0.1363615760080678</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04259213004549037</v>
+        <v>0.03171333074921997</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4281241808.346472</v>
+        <v>4539393833.574076</v>
       </c>
       <c r="F97" t="n">
-        <v>0.113502933856324</v>
+        <v>0.134392684048273</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02843738775942418</v>
+        <v>0.02153250806282321</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>87</v>
+      </c>
+      <c r="J97" t="n">
+        <v>181</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3596089099.360603</v>
+        <v>2410519887.682258</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09637094185343249</v>
+        <v>0.1165485668138755</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0265772125300771</v>
+        <v>0.02525394467542713</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>44</v>
+      </c>
+      <c r="J98" t="n">
+        <v>179</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3072303688.91976</v>
+        <v>2388482605.173587</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1043270279233754</v>
+        <v>0.1247368311286666</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02800972078999207</v>
+        <v>0.02764253285213162</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3885745022.913211</v>
+        <v>4456998999.287435</v>
       </c>
       <c r="F100" t="n">
-        <v>0.171522794033819</v>
+        <v>0.1274458644490737</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02689635045317785</v>
+        <v>0.02602289789842994</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>75</v>
+      </c>
+      <c r="J100" t="n">
+        <v>181</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3518490013.231457</v>
+        <v>2834034316.287219</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1930949950035152</v>
+        <v>0.222045284587139</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05549614322288354</v>
+        <v>0.05727096012951662</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
